--- a/Topology/data/results/06-06-22/all_graphs_properties__06-06-22.xlsx
+++ b/Topology/data/results/06-06-22/all_graphs_properties__06-06-22.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\ExMAS_sideline\Topology\data\results\06-06-22\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E4105-6801-4095-AE88-4C49A803AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>nodes mean</t>
   </si>
@@ -62,13 +68,88 @@
   </si>
   <si>
     <t>pairs matching</t>
+  </si>
+  <si>
+    <t>1164 (166)</t>
+  </si>
+  <si>
+    <t>250 (3)</t>
+  </si>
+  <si>
+    <t>147 (0)</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>2306 (497)</t>
+  </si>
+  <si>
+    <t>470 (47)</t>
+  </si>
+  <si>
+    <t>61 (0)</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>3,922 (0,287)</t>
+  </si>
+  <si>
+    <t>1,175 (0,15)</t>
+  </si>
+  <si>
+    <t>6,394 (0,638)</t>
+  </si>
+  <si>
+    <t>0,831 (0,082)</t>
+  </si>
+  <si>
+    <t>deg.travellers</t>
+  </si>
+  <si>
+    <t>1 (0)</t>
+  </si>
+  <si>
+    <t>2,249 (0,121)</t>
+  </si>
+  <si>
+    <t>15,692 (3,384)</t>
+  </si>
+  <si>
+    <t>1,425 (0,043)</t>
+  </si>
+  <si>
+    <t>0,961 (0,11)</t>
+  </si>
+  <si>
+    <t>0,022 (0,002)</t>
+  </si>
+  <si>
+    <t>0,853 (0,027)</t>
+  </si>
+  <si>
+    <t>0,030 (0,004)</t>
+  </si>
+  <si>
+    <t>Greatest component</t>
+  </si>
+  <si>
+    <t>deg.rides</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,17 +201,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +305,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +357,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +550,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="A8:G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,171 +612,331 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1164.455</v>
-      </c>
-      <c r="C2">
-        <v>166.4849181607752</v>
-      </c>
-      <c r="D2">
-        <v>2306.662</v>
-      </c>
-      <c r="E2">
-        <v>497.4841020133206</v>
-      </c>
-      <c r="F2">
-        <v>3.922462334427364</v>
-      </c>
-      <c r="G2">
+      <c r="B2" s="2">
+        <v>1164.4549999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>166.48491816077521</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2306.6619999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>497.48410201332058</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.9224623344273639</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.2872900983129566</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>2.248807949560903</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.1206045473437308</v>
       </c>
-      <c r="J2">
-        <v>15.69157823129252</v>
-      </c>
-      <c r="K2">
-        <v>3.384245591927351</v>
-      </c>
-      <c r="L2">
-        <v>0.9610601738279111</v>
-      </c>
-      <c r="M2">
-        <v>0.01058261162600434</v>
+      <c r="J2" s="3">
+        <v>15.691578231292519</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.3842455919273511</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.96106017382791109</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.0582611626004341E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>250.23</v>
       </c>
-      <c r="C3">
-        <v>3.137371511313252</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>3.1373715113132521</v>
+      </c>
+      <c r="D3" s="2">
         <v>147</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1.175103452480753</v>
-      </c>
-      <c r="G3">
-        <v>0.01470806409550572</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.1751034524807531</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.470806409550572E-2</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>1.42531668496593</v>
       </c>
-      <c r="K3">
-        <v>0.04321258039842201</v>
-      </c>
-      <c r="L3">
-        <v>0.02187030668220926</v>
-      </c>
-      <c r="M3">
-        <v>0.002255994445931705</v>
+      <c r="K3" s="3">
+        <v>4.3212580398422011E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2.187030668220926E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2.2559944459317051E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>147</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>469.944</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>469.94400000000002</v>
+      </c>
+      <c r="E4" s="2">
         <v>46.8989431010977</v>
       </c>
-      <c r="F4">
-        <v>6.393795918367347</v>
-      </c>
-      <c r="G4">
-        <v>0.6380808585183362</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.8528231292517007</v>
-      </c>
-      <c r="M4">
-        <v>0.02681150361997652</v>
+      <c r="F4" s="3">
+        <v>6.3937959183673474</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.63808085851833618</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.85282312925170067</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2.6811503619976518E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>147</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>61.089</v>
-      </c>
-      <c r="E5">
-        <v>6.012576735477062</v>
-      </c>
-      <c r="F5">
-        <v>0.8311428571428571</v>
-      </c>
-      <c r="G5">
-        <v>0.08180376510853146</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.03041496598639455</v>
-      </c>
-      <c r="M5">
-        <v>0.003757904652649819</v>
-      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>61.088999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.0125767354770616</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.83114285714285707</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8.1803765108531462E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3.0414965986394552E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3.757904652649819E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Topology/data/results/06-06-22/all_graphs_properties__06-06-22.xlsx
+++ b/Topology/data/results/06-06-22/all_graphs_properties__06-06-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\ExMAS_sideline\Topology\data\results\06-06-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E4105-6801-4095-AE88-4C49A803AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245A109-736F-4D47-8D2F-F85B2DD3E894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>470 (47)</t>
   </si>
   <si>
-    <t>61 (0)</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>deg.rides</t>
+  </si>
+  <si>
+    <t>61 (6)</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -213,6 +213,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,25 +557,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="A8:G12"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -594,16 +600,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -784,16 +790,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
@@ -818,21 +824,21 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="6"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -852,21 +858,21 @@
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="6"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -886,17 +892,17 @@
         <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="6"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -913,20 +919,20 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="6"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -935,6 +941,32 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
